--- a/src/assets/ptas.xlsx
+++ b/src/assets/ptas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\nombre-del-proyecto\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87021625-E52B-4684-9D36-849233661E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006154B-8DA8-43BF-8442-92B7B91600A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4853AEFE-995B-48AA-96DE-359AD9611B12}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Nombre</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Cali</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -146,9 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,141 +469,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730F7B1A-4AB1-483D-AC73-1EC61D066AFD}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1085</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>170</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2148</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>180</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>9648</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>190</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2232</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>200</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1111</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>210</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3333</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>220</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4444</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>230</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5687</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>240</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
     </row>
